--- a/DATA/constraint.xlsx
+++ b/DATA/constraint.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krisu\Desktop\KULIAH DATA SCIENCE\Sem 5\WQD7011_NUMERICAL OPTIMIZATION\GROUP ASSIGNMENT\numericaloptimization\DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA3B80D0-F363-46B1-A663-C22DEB5B5445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7895104F-F412-45F2-A9C3-5087CFB12B40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{041B6B6C-B25A-4488-B7D8-B64F37F02877}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{041B6B6C-B25A-4488-B7D8-B64F37F02877}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Constraint</t>
   </si>
@@ -33,86 +33,71 @@
     <t>Equation</t>
   </si>
   <si>
-    <t>Flour</t>
-  </si>
-  <si>
-    <t>Sugar</t>
-  </si>
-  <si>
-    <t>Developer</t>
-  </si>
-  <si>
-    <t>Softener</t>
-  </si>
-  <si>
-    <t>Yellow butter</t>
-  </si>
-  <si>
-    <t>Salt</t>
-  </si>
-  <si>
-    <t>Milk powder</t>
-  </si>
-  <si>
-    <t>Liquid milk</t>
-  </si>
-  <si>
-    <t>BOS butter</t>
-  </si>
-  <si>
-    <t>Egg</t>
-  </si>
-  <si>
-    <t>Feeling</t>
-  </si>
-  <si>
-    <t>White butter</t>
-  </si>
-  <si>
-    <t>Calcium</t>
-  </si>
-  <si>
-    <t>Production machine</t>
-  </si>
-  <si>
-    <t>Labor</t>
-  </si>
-  <si>
-    <t>28x1 + 100x2 + 250x3 ≤ 400,000</t>
-  </si>
-  <si>
-    <t>7x1 + 25x2 + 62x3 ≤ 250,000</t>
-  </si>
-  <si>
-    <t>1x1 + 9x2 + 4x3 ≤ 90,000</t>
-  </si>
-  <si>
-    <t>1x1 + 6x2 + 2x3 ≤ 40,000</t>
-  </si>
-  <si>
-    <t>5x1 + 20x2 + 50x3 ≤ 90,000</t>
-  </si>
-  <si>
-    <t>1x1 + 3x2 ≤ 10,000</t>
-  </si>
-  <si>
-    <t>1x1 + 3x2 + 2x3 ≤ 60,000</t>
-  </si>
-  <si>
-    <t>5x1 + 20x2 ≤ 60,000</t>
-  </si>
-  <si>
-    <t>5x1 + 20x2 ≤ 90,000</t>
-  </si>
-  <si>
-    <t>4x1 + 15x2 + 25x3 ≤ 70,000</t>
-  </si>
-  <si>
-    <t>14x1 + 20x2 ≤ 200,000</t>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>salt</t>
+  </si>
+  <si>
+    <t>vegetable oil</t>
+  </si>
+  <si>
+    <t>baking powder</t>
+  </si>
+  <si>
+    <t>sugar</t>
+  </si>
+  <si>
+    <t>yeast</t>
+  </si>
+  <si>
+    <t>5x3 ≤ 2000</t>
+  </si>
+  <si>
+    <t>spices</t>
+  </si>
+  <si>
+    <t>butter</t>
+  </si>
+  <si>
+    <t>machine</t>
+  </si>
+  <si>
+    <t>45x1 + 75x2 + 60x3 ≤ 216000</t>
+  </si>
+  <si>
+    <t>150x1 + 200x2 + 250x3 ≤ 350000</t>
+  </si>
+  <si>
+    <t>50x1 + 5x2 + 7x3 ≤ 250000</t>
+  </si>
+  <si>
+    <t>50x2 ≤ 60000</t>
+  </si>
+  <si>
+    <t>5x1 + 7x2 + 8x3 ≤ 10000</t>
+  </si>
+  <si>
+    <t>15x1 + 25x2 + 20x3 ≤ 100000</t>
+  </si>
+  <si>
+    <t>5x1 ≤ 50000</t>
+  </si>
+  <si>
+    <t>12x1 + 8x2 + 15x3 ≤ 30000</t>
+  </si>
+  <si>
+    <t>200x1 + 300x2 + 250x3 ≤ 500000</t>
+  </si>
+  <si>
+    <t>5x1 + 10x2 + 5x3 ≤ 10000</t>
   </si>
   <si>
     <r>
-      <t>5x</t>
+      <t>4x1 + 6x2 + 8x</t>
     </r>
     <r>
       <rPr>
@@ -121,26 +106,39 @@
         <rFont val="Segoe UI"/>
         <family val="2"/>
       </rPr>
-      <t>3 ≤ 90,000</t>
+      <t xml:space="preserve">3 </t>
     </r>
-  </si>
-  <si>
-    <t>2x3 ≤ 20,000</t>
-  </si>
-  <si>
-    <t>32x1 + 132x2 + 336x3 ≤ 475,200</t>
-  </si>
-  <si>
-    <t>65x1 + 209x2 + 450x3 ≤ 748,800</t>
-  </si>
-  <si>
-    <t>x1 ≥ 3640</t>
-  </si>
-  <si>
-    <t>x2 ≥ 1300</t>
-  </si>
-  <si>
-    <t>x3 ≥ 520</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF374151"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>≤ 30000</t>
+    </r>
+  </si>
+  <si>
+    <t>60x1 + 90x2 + 75x3 ≤ 108000</t>
+  </si>
+  <si>
+    <t>x1 ≥ 800</t>
+  </si>
+  <si>
+    <t>x2 ≥ 350</t>
+  </si>
+  <si>
+    <t>x3 ≥ 250</t>
+  </si>
+  <si>
+    <t>flour</t>
+  </si>
+  <si>
+    <t>egg</t>
+  </si>
+  <si>
+    <t>labor</t>
   </si>
 </sst>
 </file>
@@ -156,34 +154,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="10.5"/>
       <color rgb="FF374151"/>
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="10.5"/>
+      <sz val="11"/>
       <color rgb="FF374151"/>
-      <name val="Segoe UI"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
+      <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF7F7F8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="6">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -191,102 +183,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFD9D9E3"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFD9D9E3"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFD9D9E3"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFD9D9E3"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFD9D9E3"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFD9D9E3"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFD9D9E3"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFD9D9E3"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFD9D9E3"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFD9D9E3"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFD9D9E3"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFD9D9E3"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -601,159 +503,143 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22A57C48-3443-4A51-9815-583E1202314E}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="4" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="4" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="4" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="4" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="4" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="4" t="s">
+    <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="4" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="4" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="4" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="4" t="s">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="5" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
